--- a/experiments/real_data_experiments/results.xlsx
+++ b/experiments/real_data_experiments/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuzne\Documents\ACTIVE_PROJECTS\research\experiments\real_data_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD5190B-3A6B-4D1C-9AEA-1DC3B3B2C5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684E4E41-A4A6-4B50-A8C9-B337C30D29E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D3DA8771-1432-4179-AD61-E06224215FC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Air_Train</t>
   </si>
@@ -88,6 +88,12 @@
   <si>
     <t>layer 2 degree</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>layer 3 degree</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -143,11 +149,320 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +477,102 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,11 +889,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94755FB-9259-4D0E-981D-300B3D3492BC}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,10 +904,14 @@
     <col min="5" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="15.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="13.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
@@ -521,41 +936,48 @@
       <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="14">
         <v>69</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="15">
         <v>12</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="15">
         <f>C2/B$2</f>
         <v>0.17391304347826086</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="15">
         <v>67</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="15">
         <f>E2/B$2</f>
         <v>0.97101449275362317</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="14">
         <v>4</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="16">
         <v>5.22</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="17">
         <v>9.33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>69</v>
+      </c>
       <c r="C3" s="4">
         <v>3</v>
       </c>
@@ -570,13 +992,23 @@
         <f t="shared" ref="F3:F5" si="1">E3/B$2</f>
         <v>0.3188405797101449</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5.22</v>
+      </c>
+      <c r="I3" s="19">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>69</v>
+      </c>
       <c r="C4" s="4">
         <v>4</v>
       </c>
@@ -591,87 +1023,234 @@
         <f t="shared" si="1"/>
         <v>0.10144927536231885</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4">
+      <c r="G4" s="3">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5.22</v>
+      </c>
+      <c r="I4" s="19">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="B5" s="6">
+        <v>69</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>1.4492753623188406E-2</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8">
+        <v>5.22</v>
+      </c>
+      <c r="I5" s="21">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B7" s="14">
+        <v>279</v>
+      </c>
+      <c r="C7" s="15">
+        <v>50</v>
+      </c>
+      <c r="D7" s="15">
+        <f>C7/B$7</f>
+        <v>0.17921146953405018</v>
+      </c>
+      <c r="E7" s="15">
+        <v>226</v>
+      </c>
+      <c r="F7" s="15">
+        <f>E7/B$7</f>
+        <v>0.81003584229390679</v>
+      </c>
+      <c r="G7" s="14">
+        <v>4</v>
+      </c>
+      <c r="H7" s="14">
+        <v>3.71</v>
+      </c>
+      <c r="I7" s="14">
+        <v>6.37</v>
+      </c>
+      <c r="J7" s="17">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>279</v>
+      </c>
+      <c r="C8" s="4">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ref="D8:D10" si="2">C8/B$7</f>
+        <v>0.1003584229390681</v>
+      </c>
+      <c r="E8" s="4">
+        <v>119</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" ref="F8:F10" si="3">E8/B$7</f>
+        <v>0.4265232974910394</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3.71</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6.37</v>
+      </c>
+      <c r="J8" s="19">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>279</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1505376344086023E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>5.7347670250896057E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3.71</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6.37</v>
+      </c>
+      <c r="J9" s="19">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6">
+        <v>279</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="3"/>
+        <v>7.1684587813620072E-3</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6">
+        <v>3.71</v>
+      </c>
+      <c r="I10" s="6">
+        <v>6.37</v>
+      </c>
+      <c r="J10" s="21">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="31">
         <v>1037</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="32">
         <v>114</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="32">
         <f>C11/B$11</f>
         <v>0.10993249758919961</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="32">
         <v>449</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="32">
         <f>E11/B$11</f>
         <v>0.43297974927675986</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="31">
         <v>5</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="31">
         <v>3.59</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="33">
         <v>2.75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1037</v>
+      </c>
       <c r="C12" s="4">
         <v>53</v>
       </c>
@@ -686,13 +1265,23 @@
         <f>E12/B$11</f>
         <v>0.12632594021215043</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.59</v>
+      </c>
+      <c r="I12" s="19">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1037</v>
+      </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
@@ -707,13 +1296,23 @@
         <f>E13/B$11</f>
         <v>4.8216007714561235E-3</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.59</v>
+      </c>
+      <c r="I13" s="19">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1037</v>
+      </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
@@ -728,51 +1327,98 @@
         <f>E14/B$11</f>
         <v>2.8929604628736743E-3</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4">
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.59</v>
+      </c>
+      <c r="I14" s="19">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1037</v>
+      </c>
+      <c r="C15" s="10">
         <v>0</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="10">
         <f>C15/B$11</f>
         <v>0</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="10">
         <f>E15/B$11</f>
         <v>9.6432015429122472E-4</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="G15" s="9">
+        <v>5</v>
+      </c>
+      <c r="H15" s="9">
+        <v>3.59</v>
+      </c>
+      <c r="I15" s="23">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="14">
+        <v>88</v>
+      </c>
+      <c r="C16" s="15">
+        <v>14</v>
+      </c>
+      <c r="D16" s="15">
+        <f>C16/B$16</f>
+        <v>0.15909090909090909</v>
+      </c>
+      <c r="E16" s="15">
+        <v>74</v>
+      </c>
+      <c r="F16" s="15">
+        <f>E16/B$16</f>
+        <v>0.84090909090909094</v>
+      </c>
+      <c r="G16" s="14">
+        <v>9</v>
+      </c>
+      <c r="H16" s="14">
+        <v>5.23</v>
+      </c>
+      <c r="I16" s="17">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="3">
         <v>88</v>
       </c>
       <c r="C17" s="4">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D17" s="4">
-        <f>C17/B$17</f>
-        <v>0.15909090909090909</v>
+        <f t="shared" ref="D17:D24" si="4">C17/B$16</f>
+        <v>3.4090909090909088E-2</v>
       </c>
       <c r="E17" s="4">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F17" s="4">
-        <f>E17/B$17</f>
-        <v>0.84090909090909094</v>
+        <f t="shared" ref="F17:F24" si="5">E17/B$16</f>
+        <v>0.55681818181818177</v>
       </c>
       <c r="G17" s="3">
         <v>9</v>
@@ -780,250 +1426,416 @@
       <c r="H17" s="3">
         <v>5.23</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="19">
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3">
+        <v>88</v>
+      </c>
       <c r="C18" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:D25" si="2">C18/B$17</f>
-        <v>3.4090909090909088E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.1363636363636364E-2</v>
       </c>
       <c r="E18" s="4">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" ref="F18:F25" si="3">E18/B$17</f>
-        <v>0.55681818181818177</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+        <f t="shared" si="5"/>
+        <v>0.47727272727272729</v>
+      </c>
+      <c r="G18" s="3">
+        <v>9</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5.23</v>
+      </c>
+      <c r="I18" s="19">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3">
+        <v>88</v>
+      </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="E19" s="4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="3"/>
-        <v>0.47727272727272729</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+        <f t="shared" si="5"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="G19" s="3">
+        <v>9</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5.23</v>
+      </c>
+      <c r="I19" s="19">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3">
+        <v>88</v>
+      </c>
       <c r="C20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="2"/>
-        <v>1.1363636363636364E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="E20" s="4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="3"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+        <f t="shared" si="5"/>
+        <v>0.43181818181818182</v>
+      </c>
+      <c r="G20" s="3">
+        <v>9</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5.23</v>
+      </c>
+      <c r="I20" s="19">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>88</v>
+      </c>
       <c r="C21" s="4">
         <v>2</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="E21" s="4">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="3"/>
-        <v>0.43181818181818182</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+        <f t="shared" si="5"/>
+        <v>0.28409090909090912</v>
+      </c>
+      <c r="G21" s="3">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5.23</v>
+      </c>
+      <c r="I21" s="19">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3">
+        <v>88</v>
+      </c>
       <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1363636363636364E-2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>19</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="5"/>
+        <v>0.21590909090909091</v>
+      </c>
+      <c r="G22" s="3">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5.23</v>
+      </c>
+      <c r="I22" s="19">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>88</v>
+      </c>
+      <c r="C23" s="4">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>17</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="5"/>
+        <v>0.19318181818181818</v>
+      </c>
+      <c r="G23" s="3">
+        <v>9</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5.23</v>
+      </c>
+      <c r="I23" s="19">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6">
+        <v>88</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="5"/>
+        <v>3.4090909090909088E-2</v>
+      </c>
+      <c r="G24" s="6">
+        <v>9</v>
+      </c>
+      <c r="H24" s="6">
+        <v>5.23</v>
+      </c>
+      <c r="I24" s="21">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="14">
+        <v>241</v>
+      </c>
+      <c r="C26" s="15">
+        <v>26</v>
+      </c>
+      <c r="D26" s="15">
+        <f>C26/B26</f>
+        <v>0.1078838174273859</v>
+      </c>
+      <c r="E26" s="15">
+        <v>97</v>
+      </c>
+      <c r="F26" s="15">
+        <f>E26/B26</f>
+        <v>0.40248962655601661</v>
+      </c>
+      <c r="G26" s="14">
+        <v>3</v>
+      </c>
+      <c r="H26" s="14">
+        <v>3.73</v>
+      </c>
+      <c r="I26" s="14">
+        <v>4.13</v>
+      </c>
+      <c r="J26" s="17">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3">
+        <v>241</v>
+      </c>
+      <c r="C27" s="4">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" ref="D27:D28" si="6">C27/B27</f>
+        <v>9.5435684647302899E-2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>39</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" ref="F27:F28" si="7">E27/B27</f>
+        <v>0.16182572614107885</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3.73</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4.13</v>
+      </c>
+      <c r="J27" s="19">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="6">
+        <v>241</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
         <v>2</v>
       </c>
-      <c r="D22" s="4">
-        <f t="shared" si="2"/>
-        <v>2.2727272727272728E-2</v>
-      </c>
-      <c r="E22" s="4">
-        <v>25</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="3"/>
-        <v>0.28409090909090912</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="2"/>
-        <v>1.1363636363636364E-2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>19</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="3"/>
-        <v>0.21590909090909091</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4">
+      <c r="F28" s="7">
+        <f t="shared" si="7"/>
+        <v>8.2987551867219917E-3</v>
+      </c>
+      <c r="G28" s="6">
+        <v>3</v>
+      </c>
+      <c r="H28" s="6">
+        <v>3.73</v>
+      </c>
+      <c r="I28" s="6">
+        <v>4.13</v>
+      </c>
+      <c r="J28" s="21">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="31">
+        <v>2588</v>
+      </c>
+      <c r="C29" s="32">
+        <v>78</v>
+      </c>
+      <c r="D29" s="32">
+        <f>C29/B$29</f>
+        <v>3.0139103554868624E-2</v>
+      </c>
+      <c r="E29" s="32">
+        <v>158</v>
+      </c>
+      <c r="F29" s="32">
+        <f>E29/B$29</f>
+        <v>6.1051004636785165E-2</v>
+      </c>
+      <c r="G29" s="31">
+        <v>2</v>
+      </c>
+      <c r="H29" s="31">
+        <v>2.14</v>
+      </c>
+      <c r="I29" s="33">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2588</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <f>C30/B$29</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2</v>
+      </c>
+      <c r="F30" s="7">
+        <f>E30/B$29</f>
+        <v>7.7279752704791343E-4</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="I30" s="21">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="4">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="E24" s="4">
-        <v>17</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="3"/>
-        <v>0.19318181818181818</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>3</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="3"/>
-        <v>3.4090909090909088E-2</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="3">
-        <v>2588</v>
-      </c>
-      <c r="C32" s="4">
-        <v>78</v>
-      </c>
-      <c r="D32" s="4">
-        <f>C32/B$32</f>
-        <v>3.0139103554868624E-2</v>
-      </c>
-      <c r="E32" s="4">
-        <v>158</v>
-      </c>
-      <c r="F32" s="4">
-        <f>E32/B$32</f>
-        <v>6.1051004636785165E-2</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2.14</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4">
-        <f>C33/B$32</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4">
-        <f>E33/B$32</f>
-        <v>7.7279752704791343E-4</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiments/real_data_experiments/results.xlsx
+++ b/experiments/real_data_experiments/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuzne\Documents\ACTIVE_PROJECTS\research\experiments\real_data_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FAC5FA-2111-4EF9-95FE-B3DFB4033467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C08D5FF-7DB7-44B2-B836-74D389D357B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D3DA8771-1432-4179-AD61-E06224215FC4}"/>
   </bookViews>
@@ -987,8 +987,8 @@
   <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
